--- a/co-honour/通讯录.xlsx
+++ b/co-honour/通讯录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\co-honour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59FF09F-5249-4E3D-A061-9C3486C8F88A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B54B6F1-0273-4640-B756-5DEDFF1FB532}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9465" xr2:uid="{1487AD08-8CB4-4F01-B158-BB683C200739}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>姓名</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>中化alex.yang@albatross-tanks.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚翻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021-66076023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2Forwarder2853366123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39CDDF92-87EA-47D3-8132-3155A567AC12}" name="表1" displayName="表1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{36C44F64-3D42-4060-B380-7455F8354EE7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{39CDDF92-87EA-47D3-8132-3155A567AC12}" name="表1" displayName="表1" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{36C44F64-3D42-4060-B380-7455F8354EE7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{43C25693-8D6F-4731-A601-6C8D935C0C07}" name="姓名"/>
     <tableColumn id="2" xr3:uid="{49B3067D-3C51-4F5E-8DB5-FF30DFA539F0}" name="手机"/>
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF854E81-EDF8-46E5-ACEB-E712A77A71E0}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,6 +862,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
